--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efnb2-Ephb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efnb2-Ephb2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.95628266666667</v>
+        <v>45.71598933333333</v>
       </c>
       <c r="H2">
-        <v>86.868848</v>
+        <v>137.147968</v>
       </c>
       <c r="I2">
-        <v>0.5491054194301004</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="J2">
-        <v>0.5491054194301005</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,22 +561,22 @@
         <v>26.648191</v>
       </c>
       <c r="O2">
-        <v>0.9229419957556332</v>
+        <v>0.9347132976570145</v>
       </c>
       <c r="P2">
-        <v>0.9229419957556332</v>
+        <v>0.9347132976570145</v>
       </c>
       <c r="Q2">
-        <v>257.2108503837742</v>
+        <v>406.0828051695431</v>
       </c>
       <c r="R2">
-        <v>2314.897653453968</v>
+        <v>3654.745246525888</v>
       </c>
       <c r="S2">
-        <v>0.5067924516890508</v>
+        <v>0.6121440131957211</v>
       </c>
       <c r="T2">
-        <v>0.506792451689051</v>
+        <v>0.6121440131957211</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.95628266666667</v>
+        <v>45.71598933333333</v>
       </c>
       <c r="H3">
-        <v>86.868848</v>
+        <v>137.147968</v>
       </c>
       <c r="I3">
-        <v>0.5491054194301004</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="J3">
-        <v>0.5491054194301005</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.733518</v>
+        <v>0.616144</v>
       </c>
       <c r="N3">
-        <v>2.200554</v>
+        <v>1.848432</v>
       </c>
       <c r="O3">
-        <v>0.07621469316727886</v>
+        <v>0.06483569448352988</v>
       </c>
       <c r="P3">
-        <v>0.07621469316727884</v>
+        <v>0.0648356944835299</v>
       </c>
       <c r="Q3">
-        <v>21.239954549088</v>
+        <v>28.16763253179733</v>
       </c>
       <c r="R3">
-        <v>191.159590941792</v>
+        <v>253.508692786176</v>
       </c>
       <c r="S3">
-        <v>0.04184990105835507</v>
+        <v>0.04246091536192431</v>
       </c>
       <c r="T3">
-        <v>0.04184990105835507</v>
+        <v>0.04246091536192433</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.95628266666667</v>
+        <v>45.71598933333333</v>
       </c>
       <c r="H4">
-        <v>86.868848</v>
+        <v>137.147968</v>
       </c>
       <c r="I4">
-        <v>0.5491054194301004</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="J4">
-        <v>0.5491054194301005</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.008116333333333335</v>
+        <v>0.004286</v>
       </c>
       <c r="N4">
-        <v>0.024349</v>
+        <v>0.012858</v>
       </c>
       <c r="O4">
-        <v>0.0008433110770878938</v>
+        <v>0.0004510078594555965</v>
       </c>
       <c r="P4">
-        <v>0.0008433110770878937</v>
+        <v>0.0004510078594555965</v>
       </c>
       <c r="Q4">
-        <v>0.2350188422168889</v>
+        <v>0.1959387302826667</v>
       </c>
       <c r="R4">
-        <v>2.115169579952</v>
+        <v>1.763448572544</v>
       </c>
       <c r="S4">
-        <v>0.0004630666826943976</v>
+        <v>0.0002953651796352924</v>
       </c>
       <c r="T4">
-        <v>0.0004630666826943977</v>
+        <v>0.0002953651796352924</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>38.074479</v>
       </c>
       <c r="I5">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="J5">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,10 +747,10 @@
         <v>26.648191</v>
       </c>
       <c r="O5">
-        <v>0.9229419957556332</v>
+        <v>0.9347132976570145</v>
       </c>
       <c r="P5">
-        <v>0.9229419957556332</v>
+        <v>0.9347132976570145</v>
       </c>
       <c r="Q5">
         <v>112.7351098463877</v>
@@ -759,10 +759,10 @@
         <v>1014.615988617489</v>
       </c>
       <c r="S5">
-        <v>0.2221263318605685</v>
+        <v>0.1699410112689107</v>
       </c>
       <c r="T5">
-        <v>0.2221263318605685</v>
+        <v>0.1699410112689107</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>38.074479</v>
       </c>
       <c r="I6">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="J6">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.733518</v>
+        <v>0.616144</v>
       </c>
       <c r="N6">
-        <v>2.200554</v>
+        <v>1.848432</v>
       </c>
       <c r="O6">
-        <v>0.07621469316727886</v>
+        <v>0.06483569448352988</v>
       </c>
       <c r="P6">
-        <v>0.07621469316727884</v>
+        <v>0.0648356944835299</v>
       </c>
       <c r="Q6">
-        <v>9.309438562374</v>
+        <v>7.819787262992</v>
       </c>
       <c r="R6">
-        <v>83.78494706136598</v>
+        <v>70.37808536692799</v>
       </c>
       <c r="S6">
-        <v>0.01834274559504251</v>
+        <v>0.01178783217749435</v>
       </c>
       <c r="T6">
-        <v>0.01834274559504251</v>
+        <v>0.01178783217749435</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,40 +853,40 @@
         <v>38.074479</v>
       </c>
       <c r="I7">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="J7">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.008116333333333335</v>
+        <v>0.004286</v>
       </c>
       <c r="N7">
-        <v>0.024349</v>
+        <v>0.012858</v>
       </c>
       <c r="O7">
-        <v>0.0008433110770878938</v>
+        <v>0.0004510078594555965</v>
       </c>
       <c r="P7">
-        <v>0.0008433110770878937</v>
+        <v>0.0004510078594555965</v>
       </c>
       <c r="Q7">
-        <v>0.1030083876856667</v>
+        <v>0.05439573899799999</v>
       </c>
       <c r="R7">
-        <v>0.927075489171</v>
+        <v>0.4895616509819999</v>
       </c>
       <c r="S7">
-        <v>0.0002029613963091522</v>
+        <v>8.199811847999941E-05</v>
       </c>
       <c r="T7">
-        <v>0.0002029613963091522</v>
+        <v>8.199811847999941E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.59691233333333</v>
+        <v>11.24784666666667</v>
       </c>
       <c r="H8">
-        <v>31.790737</v>
+        <v>33.74354</v>
       </c>
       <c r="I8">
-        <v>0.200951968125294</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="J8">
-        <v>0.200951968125294</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,22 +933,22 @@
         <v>26.648191</v>
       </c>
       <c r="O8">
-        <v>0.9229419957556332</v>
+        <v>0.9347132976570145</v>
       </c>
       <c r="P8">
-        <v>0.9229419957556332</v>
+        <v>0.9347132976570145</v>
       </c>
       <c r="Q8">
-        <v>94.12951462297411</v>
+        <v>99.91158877068221</v>
       </c>
       <c r="R8">
-        <v>847.165631606767</v>
+        <v>899.2042989361398</v>
       </c>
       <c r="S8">
-        <v>0.1854670105125813</v>
+        <v>0.1506103684673647</v>
       </c>
       <c r="T8">
-        <v>0.1854670105125813</v>
+        <v>0.1506103684673647</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.59691233333333</v>
+        <v>11.24784666666667</v>
       </c>
       <c r="H9">
-        <v>31.790737</v>
+        <v>33.74354</v>
       </c>
       <c r="I9">
-        <v>0.200951968125294</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="J9">
-        <v>0.200951968125294</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.733518</v>
+        <v>0.616144</v>
       </c>
       <c r="N9">
-        <v>2.200554</v>
+        <v>1.848432</v>
       </c>
       <c r="O9">
-        <v>0.07621469316727886</v>
+        <v>0.06483569448352988</v>
       </c>
       <c r="P9">
-        <v>0.07621469316727884</v>
+        <v>0.0648356944835299</v>
       </c>
       <c r="Q9">
-        <v>7.773025940922</v>
+        <v>6.930293236586667</v>
       </c>
       <c r="R9">
-        <v>69.957233468298</v>
+        <v>62.37263912928</v>
       </c>
       <c r="S9">
-        <v>0.01531549259203009</v>
+        <v>0.01044697647982439</v>
       </c>
       <c r="T9">
-        <v>0.01531549259203008</v>
+        <v>0.01044697647982439</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.59691233333333</v>
+        <v>11.24784666666667</v>
       </c>
       <c r="H10">
-        <v>31.790737</v>
+        <v>33.74354</v>
       </c>
       <c r="I10">
-        <v>0.200951968125294</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="J10">
-        <v>0.200951968125294</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.008116333333333335</v>
+        <v>0.004286</v>
       </c>
       <c r="N10">
-        <v>0.024349</v>
+        <v>0.012858</v>
       </c>
       <c r="O10">
-        <v>0.0008433110770878938</v>
+        <v>0.0004510078594555965</v>
       </c>
       <c r="P10">
-        <v>0.0008433110770878937</v>
+        <v>0.0004510078594555965</v>
       </c>
       <c r="Q10">
-        <v>0.08600807280144447</v>
+        <v>0.04820827081333333</v>
       </c>
       <c r="R10">
-        <v>0.7740726552130001</v>
+        <v>0.4338744373199999</v>
       </c>
       <c r="S10">
-        <v>0.0001694650206826738</v>
+        <v>7.267090354288495E-05</v>
       </c>
       <c r="T10">
-        <v>0.0001694650206826738</v>
+        <v>7.267090354288497E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.4888703333333333</v>
+        <v>0.1507006666666667</v>
       </c>
       <c r="H11">
-        <v>1.466611</v>
+        <v>0.452102</v>
       </c>
       <c r="I11">
-        <v>0.009270573592685365</v>
+        <v>0.00215884884710222</v>
       </c>
       <c r="J11">
-        <v>0.009270573592685367</v>
+        <v>0.00215884884710222</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>26.648191</v>
       </c>
       <c r="O11">
-        <v>0.9229419957556332</v>
+        <v>0.9347132976570145</v>
       </c>
       <c r="P11">
-        <v>0.9229419957556332</v>
+        <v>0.9347132976570145</v>
       </c>
       <c r="Q11">
-        <v>4.342503338966777</v>
+        <v>1.338633383053556</v>
       </c>
       <c r="R11">
-        <v>39.082530050701</v>
+        <v>12.047700447482</v>
       </c>
       <c r="S11">
-        <v>0.008556201693432502</v>
+        <v>0.00201790472501796</v>
       </c>
       <c r="T11">
-        <v>0.008556201693432504</v>
+        <v>0.00201790472501796</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.4888703333333333</v>
+        <v>0.1507006666666667</v>
       </c>
       <c r="H12">
-        <v>1.466611</v>
+        <v>0.452102</v>
       </c>
       <c r="I12">
-        <v>0.009270573592685365</v>
+        <v>0.00215884884710222</v>
       </c>
       <c r="J12">
-        <v>0.009270573592685367</v>
+        <v>0.00215884884710222</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.733518</v>
+        <v>0.616144</v>
       </c>
       <c r="N12">
-        <v>2.200554</v>
+        <v>1.848432</v>
       </c>
       <c r="O12">
-        <v>0.07621469316727886</v>
+        <v>0.06483569448352988</v>
       </c>
       <c r="P12">
-        <v>0.07621469316727884</v>
+        <v>0.0648356944835299</v>
       </c>
       <c r="Q12">
-        <v>0.358595189166</v>
+        <v>0.09285331156266667</v>
       </c>
       <c r="R12">
-        <v>3.227356702494</v>
+        <v>0.835679804064</v>
       </c>
       <c r="S12">
-        <v>0.0007065539218511931</v>
+        <v>0.0001399704642868403</v>
       </c>
       <c r="T12">
-        <v>0.0007065539218511931</v>
+        <v>0.0001399704642868403</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.4888703333333333</v>
+        <v>0.1507006666666667</v>
       </c>
       <c r="H13">
-        <v>1.466611</v>
+        <v>0.452102</v>
       </c>
       <c r="I13">
-        <v>0.009270573592685365</v>
+        <v>0.00215884884710222</v>
       </c>
       <c r="J13">
-        <v>0.009270573592685367</v>
+        <v>0.00215884884710222</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.008116333333333335</v>
+        <v>0.004286</v>
       </c>
       <c r="N13">
-        <v>0.024349</v>
+        <v>0.012858</v>
       </c>
       <c r="O13">
-        <v>0.0008433110770878938</v>
+        <v>0.0004510078594555965</v>
       </c>
       <c r="P13">
-        <v>0.0008433110770878937</v>
+        <v>0.0004510078594555965</v>
       </c>
       <c r="Q13">
-        <v>0.003967834582111112</v>
+        <v>0.0006459030573333334</v>
       </c>
       <c r="R13">
-        <v>0.035710511239</v>
+        <v>0.005813127516</v>
       </c>
       <c r="S13">
-        <v>7.81797740167008E-06</v>
+        <v>9.736577974197546E-07</v>
       </c>
       <c r="T13">
-        <v>7.817977401670082E-06</v>
+        <v>9.736577974197546E-07</v>
       </c>
     </row>
   </sheetData>
